--- a/Trabajo Practico.xlsx
+++ b/Trabajo Practico.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="23325" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -12,325 +12,323 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$E$3:$L$35</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="98">
+  <si>
+    <t>Sistema de ventas de una farmacéutica</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>Facturas</t>
+  </si>
+  <si>
+    <t>Detalles</t>
+  </si>
+  <si>
+    <t>Medicamentos</t>
+  </si>
+  <si>
+    <t>Laboratorios</t>
+  </si>
+  <si>
+    <t>id_cliente (PK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nro_factura(PK) </t>
+  </si>
+  <si>
+    <t>id_detalle (PK)</t>
+  </si>
+  <si>
+    <t>id_medicamentos</t>
+  </si>
+  <si>
+    <t>id_laboratorio</t>
+  </si>
+  <si>
+    <t>Contactos</t>
+  </si>
   <si>
     <t>nombre</t>
   </si>
   <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>nro_factura (FK)</t>
+  </si>
+  <si>
+    <t>id_contacto</t>
+  </si>
+  <si>
     <t>apellido</t>
   </si>
   <si>
-    <t>id_barrio (FK)</t>
+    <t>id_cliente (FK)</t>
+  </si>
+  <si>
+    <t>id_medicamentos (FK)</t>
+  </si>
+  <si>
+    <t>contacto</t>
+  </si>
+  <si>
+    <t>id_tipo_doc (FK)</t>
+  </si>
+  <si>
+    <t>legajo (FK)</t>
+  </si>
+  <si>
+    <t>precio_unit</t>
+  </si>
+  <si>
+    <t>droga</t>
+  </si>
+  <si>
+    <t>id_cliente</t>
+  </si>
+  <si>
+    <t>nro_doc</t>
+  </si>
+  <si>
+    <t>cod_forma_envío (FK)</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>id_unidad_medida</t>
+  </si>
+  <si>
+    <t>Unidades_medidas</t>
+  </si>
+  <si>
+    <t>id_farmaceutico</t>
+  </si>
+  <si>
+    <t>cod_barrio (FK)</t>
+  </si>
+  <si>
+    <t>id_tipo_venta (FK)</t>
+  </si>
+  <si>
+    <t>Unidades de medida serían gramos, mililitros, unidades…</t>
+  </si>
+  <si>
+    <t>Tipos_contactos</t>
+  </si>
+  <si>
+    <t>id_drogueria</t>
+  </si>
+  <si>
+    <t>nro_calle</t>
+  </si>
+  <si>
+    <t>tipo_unid_med</t>
+  </si>
+  <si>
+    <t>id_tipo_contacto</t>
+  </si>
+  <si>
+    <t>calle</t>
+  </si>
+  <si>
+    <t>Tipos_venta</t>
+  </si>
+  <si>
+    <t>Formas_pago</t>
+  </si>
+  <si>
+    <t>id_presentacion</t>
+  </si>
+  <si>
+    <t>tipo_contacto</t>
+  </si>
+  <si>
+    <t>nro_afiliado</t>
+  </si>
+  <si>
+    <t>Farmaceuticos</t>
+  </si>
+  <si>
+    <t>id_tipo_venta (PK)</t>
+  </si>
+  <si>
+    <t>cod_forma_pago (PK)</t>
+  </si>
+  <si>
+    <t>composicion</t>
+  </si>
+  <si>
+    <t>Presentaciones</t>
+  </si>
+  <si>
+    <t>id_plan</t>
+  </si>
+  <si>
+    <t>id_farmaceutico (PK)</t>
+  </si>
+  <si>
+    <t>tipo_venta</t>
+  </si>
+  <si>
+    <t>forma_pago</t>
+  </si>
+  <si>
+    <t>venta_libre</t>
+  </si>
+  <si>
+    <t>Obras_sociales</t>
+  </si>
+  <si>
+    <t>descuento</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>tipo_presentacion</t>
+  </si>
+  <si>
+    <t>Planes</t>
+  </si>
+  <si>
+    <t>id_obra_social</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>La presentación sería si es en capsulas, comprimidos, jarabes…</t>
+  </si>
+  <si>
+    <t>Barrios</t>
+  </si>
+  <si>
+    <t>Facturas_forma_pago</t>
+  </si>
+  <si>
+    <t>stock_minimo</t>
+  </si>
+  <si>
+    <t>cod_barrio  (PK)</t>
+  </si>
+  <si>
+    <t>id_fact_forma_pago (PK)</t>
+  </si>
+  <si>
+    <t>Formas_envío</t>
+  </si>
+  <si>
+    <t>fecha_elab</t>
   </si>
   <si>
     <t>barrio</t>
   </si>
   <si>
-    <t>Clientes</t>
-  </si>
-  <si>
-    <t>id_cliente (PK)</t>
-  </si>
-  <si>
-    <t>nro_calle</t>
-  </si>
-  <si>
-    <t>calle</t>
+    <t>cod_forma_envío (PK)</t>
+  </si>
+  <si>
+    <t>fecha_vto</t>
+  </si>
+  <si>
+    <t>venta_libre sería un bool, si es falso sería bajo receta</t>
+  </si>
+  <si>
+    <t>cod_localidad (FK)</t>
+  </si>
+  <si>
+    <t>cod_forma_pago (FK)</t>
+  </si>
+  <si>
+    <t>nombre_forma_envío</t>
+  </si>
+  <si>
+    <t>fecha_entrega</t>
+  </si>
+  <si>
+    <t>Localidades</t>
+  </si>
+  <si>
+    <t>cod_localidad  (PK)</t>
+  </si>
+  <si>
+    <t>fecha_nac</t>
   </si>
   <si>
     <t>localidad</t>
   </si>
   <si>
+    <t>fecha_ingreso</t>
+  </si>
+  <si>
+    <t>cod_provincia (FK)</t>
+  </si>
+  <si>
+    <t>Pedidos_Droguerias</t>
+  </si>
+  <si>
+    <t>Detalles_pedidos</t>
+  </si>
+  <si>
+    <t>id_pedido</t>
+  </si>
+  <si>
+    <t>id_detalle_pedido</t>
+  </si>
+  <si>
+    <t>Provincias</t>
+  </si>
+  <si>
+    <t>cod_provincia  (PK)</t>
+  </si>
+  <si>
+    <t>Droguerias</t>
+  </si>
+  <si>
     <t>provincia</t>
   </si>
   <si>
+    <t>entregado</t>
+  </si>
+  <si>
+    <t>Documentos</t>
+  </si>
+  <si>
+    <t>id_tipo_doc  (PK)</t>
+  </si>
+  <si>
     <t>tipo_doc</t>
   </si>
   <si>
-    <t>nro_doc</t>
-  </si>
-  <si>
-    <t>Barrios</t>
-  </si>
-  <si>
-    <t>Localidades</t>
-  </si>
-  <si>
-    <t>Provincias</t>
-  </si>
-  <si>
-    <t>Documentos</t>
-  </si>
-  <si>
-    <t>id_tipo_doc (FK)</t>
-  </si>
-  <si>
-    <t>cod_localidad (FK)</t>
-  </si>
-  <si>
-    <t>cod_provincia (FK)</t>
-  </si>
-  <si>
-    <t>cod_barrio  (PK)</t>
-  </si>
-  <si>
-    <t>cod_localidad  (PK)</t>
-  </si>
-  <si>
-    <t>cod_provincia  (PK)</t>
-  </si>
-  <si>
-    <t>id_tipo_doc  (PK)</t>
-  </si>
-  <si>
-    <t>Facturas</t>
-  </si>
-  <si>
-    <t>fecha</t>
-  </si>
-  <si>
-    <t>Detalles</t>
-  </si>
-  <si>
-    <t>cantidad</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nro_factura(PK) </t>
-  </si>
-  <si>
-    <t>id_detalle (PK)</t>
-  </si>
-  <si>
-    <t>id_cliente (FK)</t>
-  </si>
-  <si>
-    <t>nro_factura (FK)</t>
-  </si>
-  <si>
-    <t>descuento</t>
-  </si>
-  <si>
-    <t>fecha_ingreso</t>
-  </si>
-  <si>
-    <t>fecha_nac</t>
-  </si>
-  <si>
-    <t>Tipos_venta</t>
-  </si>
-  <si>
-    <t>tipo_venta</t>
-  </si>
-  <si>
-    <t>Formas_pago</t>
-  </si>
-  <si>
-    <t>forma_pago</t>
-  </si>
-  <si>
-    <t>Facturas_forma_pago</t>
-  </si>
-  <si>
-    <t>id_fact_forma_pago (PK)</t>
-  </si>
-  <si>
-    <t>cod_forma_pago (PK)</t>
-  </si>
-  <si>
-    <t>id_tipo_venta (PK)</t>
-  </si>
-  <si>
-    <t>cod_forma_pago (FK)</t>
-  </si>
-  <si>
-    <t>id_tipo_venta (FK)</t>
-  </si>
-  <si>
-    <t>legajo (FK)</t>
-  </si>
-  <si>
-    <t>Formas_envío</t>
-  </si>
-  <si>
-    <t>nombre_forma_envío</t>
-  </si>
-  <si>
-    <t>fecha_entrega</t>
-  </si>
-  <si>
-    <t>cod_forma_envío (PK)</t>
-  </si>
-  <si>
-    <t>cod_forma_envío (FK)</t>
-  </si>
-  <si>
-    <t>precio_unit</t>
-  </si>
-  <si>
-    <t>cod_barrio (FK)</t>
-  </si>
-  <si>
-    <t>Farmaceuticos</t>
-  </si>
-  <si>
-    <t>Sistema de ventas de una farmacéutica</t>
-  </si>
-  <si>
-    <t>Medicamentos</t>
-  </si>
-  <si>
-    <t>id_medicamentos</t>
-  </si>
-  <si>
-    <t>id_laboratorio</t>
-  </si>
-  <si>
-    <t>droga</t>
-  </si>
-  <si>
-    <t>id_presentacion</t>
-  </si>
-  <si>
-    <t>composicion</t>
-  </si>
-  <si>
-    <t>venta_libre</t>
-  </si>
-  <si>
-    <t>precio</t>
-  </si>
-  <si>
-    <t>stock_minimo</t>
-  </si>
-  <si>
-    <t>fecha_elab</t>
-  </si>
-  <si>
-    <t>fecha_vto</t>
-  </si>
-  <si>
-    <t>id_unidad_medida</t>
-  </si>
-  <si>
-    <t>Laboratorios</t>
-  </si>
-  <si>
-    <t>Unidades_medidas</t>
-  </si>
-  <si>
-    <t>tipo_unid_med</t>
-  </si>
-  <si>
-    <t>Presentaciones</t>
-  </si>
-  <si>
-    <t>tipo_presentacion</t>
-  </si>
-  <si>
-    <t>Pedidos_Droguerias</t>
-  </si>
-  <si>
-    <t>id_pedido</t>
-  </si>
-  <si>
-    <t>id_farmaceutico</t>
-  </si>
-  <si>
-    <t>Detalles_pedidos</t>
-  </si>
-  <si>
-    <t>id_detalle_pedido</t>
-  </si>
-  <si>
-    <t>Droguerias</t>
-  </si>
-  <si>
-    <t>id_drogueria</t>
-  </si>
-  <si>
-    <t>nro_afiliado</t>
-  </si>
-  <si>
-    <t>id_obra_social</t>
-  </si>
-  <si>
-    <t>Contactos</t>
-  </si>
-  <si>
-    <t>id_contacto</t>
-  </si>
-  <si>
-    <t>contacto</t>
-  </si>
-  <si>
-    <t>id_cliente</t>
-  </si>
-  <si>
-    <t>id_tipo_contacto</t>
-  </si>
-  <si>
-    <t>tipo_contacto</t>
-  </si>
-  <si>
-    <t>Tipos_contactos</t>
-  </si>
-  <si>
-    <t>id_plan</t>
-  </si>
-  <si>
-    <t>Planes</t>
-  </si>
-  <si>
-    <t>Obras_sociales</t>
-  </si>
-  <si>
     <t>Droguerias_medicamentos</t>
   </si>
   <si>
-    <t>La presentación sería si es en capsulas, comprimidos, jarabes…</t>
-  </si>
-  <si>
-    <t>venta_libre sería un bool, si es falso sería bajo receta</t>
-  </si>
-  <si>
-    <t>entregado</t>
-  </si>
-  <si>
     <t>Entregado podría ser un bool, verdadero si se entregó, y falso si está pendiente</t>
-  </si>
-  <si>
-    <t>id_medicamentos (FK)</t>
-  </si>
-  <si>
-    <t>id_farmaceutico (PK)</t>
-  </si>
-  <si>
-    <t>Unidades de medida serían gramos, mililitros, unidades…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,7 +336,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -346,7 +344,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,26 +352,363 @@
       <sz val="11"/>
       <color rgb="FF0033CC"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -383,38 +718,25 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -422,93 +744,392 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Título 3" xfId="1" builtinId="18"/>
+    <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
+    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moneda" xfId="5" builtinId="4"/>
+    <cellStyle name="Coma" xfId="6" builtinId="3"/>
+    <cellStyle name="Porcentaje" xfId="7" builtinId="5"/>
+    <cellStyle name="Hipervínculo" xfId="8" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21"/>
+    <cellStyle name="Nota" xfId="11" builtinId="10"/>
+    <cellStyle name="Título 2" xfId="12" builtinId="17"/>
+    <cellStyle name="Texto de advertencia" xfId="13" builtinId="11"/>
+    <cellStyle name="Título" xfId="14" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="15" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="16" builtinId="16"/>
+    <cellStyle name="Título 4" xfId="17" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="18" builtinId="20"/>
+    <cellStyle name="Cálculo" xfId="19" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="20" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="21" builtinId="24"/>
+    <cellStyle name="Total" xfId="22" builtinId="25"/>
+    <cellStyle name="Correcto" xfId="23" builtinId="26"/>
+    <cellStyle name="40% - Énfasis5" xfId="24" builtinId="47"/>
+    <cellStyle name="Incorrecto" xfId="25" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="26" builtinId="28"/>
+    <cellStyle name="20% - Énfasis5" xfId="27" builtinId="46"/>
+    <cellStyle name="Énfasis1" xfId="28" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="29" builtinId="30"/>
+    <cellStyle name="60% - Énfasis1" xfId="30" builtinId="32"/>
+    <cellStyle name="20% - Énfasis6" xfId="31" builtinId="50"/>
+    <cellStyle name="Énfasis2" xfId="32" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="33" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="34" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="35" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="36" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="37" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="38" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="39" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="42" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="43" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="44" builtinId="45"/>
+    <cellStyle name="60% - Énfasis5" xfId="45" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -522,15 +1143,15 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="52" name="Conector recto 51"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4123765" y="1467971"/>
-          <a:ext cx="336176" cy="11206"/>
+          <a:off x="7364095" y="1864360"/>
+          <a:ext cx="336550" cy="11430"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -566,15 +1187,15 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="2" name="Conector recto 1"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="342900" y="1314450"/>
-          <a:ext cx="9525" cy="4657725"/>
+          <a:off x="3638550" y="1704975"/>
+          <a:ext cx="9525" cy="4933950"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -610,7 +1231,7 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="7" name="Conector recto 6"/>
         <xdr:cNvCxnSpPr>
@@ -619,8 +1240,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="333375" y="5972175"/>
-          <a:ext cx="428625" cy="52387"/>
+          <a:off x="3629025" y="6638925"/>
+          <a:ext cx="400050" cy="52070"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -656,15 +1277,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="9" name="Conector recto 8"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="352425" y="1323975"/>
-          <a:ext cx="419100" cy="0"/>
+          <a:off x="3648075" y="1714500"/>
+          <a:ext cx="390525" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -700,15 +1321,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>142872</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="11" name="Conector recto 10"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2307291" y="2103901"/>
-          <a:ext cx="238125" cy="0"/>
+          <a:off x="3810000" y="2094865"/>
+          <a:ext cx="219075" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -744,7 +1365,7 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="13" name="Conector recto 12"/>
         <xdr:cNvCxnSpPr>
@@ -753,8 +1374,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2307292" y="2058449"/>
-          <a:ext cx="15822" cy="1830552"/>
+          <a:off x="3810000" y="2049780"/>
+          <a:ext cx="15240" cy="1864995"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -790,15 +1411,15 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="17" name="Conector recto 16"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="523875" y="3267075"/>
-          <a:ext cx="238125" cy="0"/>
+          <a:off x="3819525" y="3905250"/>
+          <a:ext cx="209550" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -834,15 +1455,15 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="18" name="Conector recto 17"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="552450" y="3609975"/>
-          <a:ext cx="209550" cy="9525"/>
+          <a:off x="3848100" y="4267200"/>
+          <a:ext cx="180975" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -878,15 +1499,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="19" name="Conector recto 18"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="561975" y="3600450"/>
-          <a:ext cx="0" cy="619125"/>
+          <a:off x="3857625" y="4257675"/>
+          <a:ext cx="0" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -922,15 +1543,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="20" name="Conector recto 19"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="561975" y="4256484"/>
-          <a:ext cx="205978" cy="5954"/>
+          <a:off x="3857625" y="4870450"/>
+          <a:ext cx="177165" cy="6350"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -966,15 +1587,15 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="21" name="Conector recto 20"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="523875" y="4619625"/>
-          <a:ext cx="238125" cy="0"/>
+          <a:off x="3819525" y="5276850"/>
+          <a:ext cx="209550" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1010,15 +1631,15 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="22" name="Conector recto 21"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="533400" y="4610100"/>
-          <a:ext cx="1" cy="628650"/>
+          <a:off x="3829050" y="5267325"/>
+          <a:ext cx="0" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1054,15 +1675,15 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="23" name="Conector recto 22"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="514350" y="5219700"/>
-          <a:ext cx="238125" cy="0"/>
+          <a:off x="3810000" y="5876925"/>
+          <a:ext cx="219075" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1098,15 +1719,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="32" name="Conector recto 31"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2028825" y="695325"/>
-          <a:ext cx="771525" cy="352425"/>
+          <a:off x="5295900" y="1076325"/>
+          <a:ext cx="752475" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1142,15 +1763,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="36" name="Conector recto 35"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2581275" y="1266825"/>
-          <a:ext cx="238125" cy="0"/>
+          <a:off x="5848350" y="1657350"/>
+          <a:ext cx="209550" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1186,15 +1807,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="37" name="Conector recto 36"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2581275" y="1257300"/>
-          <a:ext cx="9525" cy="1190625"/>
+          <a:off x="5848350" y="1647825"/>
+          <a:ext cx="9525" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1230,15 +1851,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="38" name="Conector recto 37"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2590800" y="2438400"/>
-          <a:ext cx="238125" cy="0"/>
+          <a:off x="5857875" y="2838450"/>
+          <a:ext cx="209550" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1274,7 +1895,7 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="39" name="Conector recto 38"/>
         <xdr:cNvCxnSpPr>
@@ -1283,8 +1904,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5332879" y="3895725"/>
-          <a:ext cx="793377" cy="408175"/>
+          <a:off x="5305425" y="3876675"/>
+          <a:ext cx="762000" cy="404495"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1320,7 +1941,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>63177</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="43" name="Conector recto 42"/>
         <xdr:cNvCxnSpPr>
@@ -1329,8 +1950,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4125516" y="1750219"/>
-          <a:ext cx="746789" cy="479896"/>
+          <a:off x="7364730" y="2143125"/>
+          <a:ext cx="721995" cy="472440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1366,7 +1987,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>71157</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="45" name="Conector recto 44"/>
         <xdr:cNvCxnSpPr>
@@ -1375,8 +1996,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4080281" y="737514"/>
-          <a:ext cx="816690" cy="118055"/>
+          <a:off x="7315835" y="1115060"/>
+          <a:ext cx="793115" cy="118110"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1412,7 +2033,7 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>92023</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="47" name="Conector recto 46"/>
         <xdr:cNvCxnSpPr>
@@ -1421,8 +2042,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6399814" y="1060639"/>
-          <a:ext cx="2875295" cy="387296"/>
+          <a:off x="9616440" y="1057275"/>
+          <a:ext cx="2813685" cy="396240"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1458,15 +2079,15 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="51" name="Conector recto 50"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6315075" y="2238376"/>
-          <a:ext cx="762000" cy="1362074"/>
+          <a:off x="9582150" y="2638425"/>
+          <a:ext cx="733425" cy="1619250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1502,7 +2123,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>96349</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="55" name="Conector recto 54"/>
         <xdr:cNvCxnSpPr>
@@ -1512,8 +2133,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4081774" y="730324"/>
-          <a:ext cx="807482" cy="2692448"/>
+          <a:off x="7316470" y="1115695"/>
+          <a:ext cx="779780" cy="2971165"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1549,15 +2170,15 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="58" name="Conector recto 57"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5850033" y="3372971"/>
-          <a:ext cx="21849" cy="3297330"/>
+          <a:off x="5819775" y="3354070"/>
+          <a:ext cx="21590" cy="3265805"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1593,7 +2214,7 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>47627</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="60" name="Conector recto 59"/>
         <xdr:cNvCxnSpPr>
@@ -1602,8 +2223,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2050398" y="5989376"/>
-          <a:ext cx="514628" cy="8575"/>
+          <a:off x="5314950" y="6610985"/>
+          <a:ext cx="514350" cy="8890"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1639,15 +2260,15 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="65" name="Conector recto 64"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2562225" y="3019425"/>
-          <a:ext cx="276225" cy="0"/>
+          <a:off x="5829300" y="3409950"/>
+          <a:ext cx="247650" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1683,15 +2304,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>49796</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="71" name="Elipse 70"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4693443" y="2197684"/>
-          <a:ext cx="209550" cy="221456"/>
+          <a:off x="7933055" y="2583180"/>
+          <a:ext cx="180975" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1730,6 +2351,11 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1748,15 +2374,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="72" name="Elipse 71"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6705600" y="2124074"/>
-          <a:ext cx="209550" cy="219075"/>
+          <a:off x="10144125" y="2523490"/>
+          <a:ext cx="180975" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1795,6 +2421,11 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1813,15 +2444,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="73" name="Elipse 72"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2609850" y="2333624"/>
-          <a:ext cx="209550" cy="219075"/>
+          <a:off x="5876925" y="2733040"/>
+          <a:ext cx="180975" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1860,6 +2491,11 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1878,15 +2514,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>175931</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="74" name="Elipse 73"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4041962" y="549087"/>
-          <a:ext cx="261658" cy="220756"/>
+          <a:off x="7277100" y="928370"/>
+          <a:ext cx="266700" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1925,6 +2561,11 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1943,15 +2584,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="75" name="Elipse 74"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6705600" y="561974"/>
-          <a:ext cx="209550" cy="219075"/>
+          <a:off x="12239625" y="942340"/>
+          <a:ext cx="180975" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1990,6 +2631,11 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2008,15 +2654,15 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="76" name="Elipse 75"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="542925" y="3171824"/>
-          <a:ext cx="209550" cy="219075"/>
+          <a:off x="3838575" y="3809365"/>
+          <a:ext cx="190500" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2055,6 +2701,11 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2073,15 +2724,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>170888</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="77" name="Elipse 76"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2022662" y="545725"/>
-          <a:ext cx="212351" cy="219075"/>
+          <a:off x="5289550" y="924560"/>
+          <a:ext cx="209550" cy="217805"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2120,6 +2771,11 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2138,15 +2794,15 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>134469</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="78" name="Elipse 77"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="561975" y="5057213"/>
-          <a:ext cx="209550" cy="220756"/>
+          <a:off x="3857625" y="5687060"/>
+          <a:ext cx="180975" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2185,6 +2841,11 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2203,15 +2864,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>184336</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="79" name="Elipse 78"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="571500" y="4120962"/>
-          <a:ext cx="209550" cy="220756"/>
+          <a:off x="3867150" y="4746625"/>
+          <a:ext cx="180975" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2250,6 +2911,11 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2268,15 +2934,15 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="80" name="Elipse 79"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="552450" y="5915024"/>
-          <a:ext cx="209550" cy="219075"/>
+          <a:off x="3848100" y="6581140"/>
+          <a:ext cx="180975" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2315,6 +2981,11 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2333,15 +3004,15 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>15688</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="85" name="Elipse 84"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="4515970"/>
-          <a:ext cx="238125" cy="239806"/>
+          <a:off x="3829050" y="5139690"/>
+          <a:ext cx="209550" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2380,6 +3051,11 @@
             </a:rPr>
             <a:t>N</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0033CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2398,15 +3074,15 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="86" name="Elipse 85"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="504825" y="3505200"/>
-          <a:ext cx="238125" cy="238125"/>
+          <a:off x="3800475" y="4152900"/>
+          <a:ext cx="228600" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2445,6 +3121,11 @@
             </a:rPr>
             <a:t>N</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0033CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2463,15 +3144,15 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>113739</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="87" name="Elipse 86"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2565026" y="2832286"/>
-          <a:ext cx="238125" cy="239806"/>
+          <a:off x="5829300" y="3418840"/>
+          <a:ext cx="219075" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2510,6 +3191,11 @@
             </a:rPr>
             <a:t>N</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0033CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2528,15 +3214,15 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>36979</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="88" name="Elipse 87"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2019300" y="5945841"/>
-          <a:ext cx="212351" cy="220756"/>
+          <a:off x="5286375" y="6578600"/>
+          <a:ext cx="209550" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2575,6 +3261,11 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2593,15 +3284,15 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="90" name="Elipse 89"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4591050" y="3324225"/>
-          <a:ext cx="238125" cy="238125"/>
+          <a:off x="7886700" y="3962400"/>
+          <a:ext cx="209550" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2640,6 +3331,11 @@
             </a:rPr>
             <a:t>N</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0033CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2658,15 +3354,15 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="92" name="Elipse 91"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2590800" y="3705225"/>
-          <a:ext cx="238125" cy="238125"/>
+          <a:off x="5857875" y="4162425"/>
+          <a:ext cx="209550" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2705,6 +3401,11 @@
             </a:rPr>
             <a:t>N</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0033CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2723,15 +3424,15 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>198343</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="93" name="Elipse 92"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2050676" y="3126440"/>
-          <a:ext cx="209550" cy="231962"/>
+          <a:off x="5314950" y="3710940"/>
+          <a:ext cx="209550" cy="278130"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2770,6 +3471,11 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2788,15 +3494,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>138952</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="94" name="Elipse 93"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2565026" y="1066239"/>
-          <a:ext cx="238125" cy="238125"/>
+          <a:off x="5829300" y="1452880"/>
+          <a:ext cx="219075" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2835,6 +3541,11 @@
             </a:rPr>
             <a:t>N</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0033CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2853,15 +3564,15 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="95" name="Elipse 94"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4038600" y="1574987"/>
-          <a:ext cx="290233" cy="239806"/>
+          <a:off x="7273925" y="1981200"/>
+          <a:ext cx="295275" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2900,6 +3611,11 @@
             </a:rPr>
             <a:t>N</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0033CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2918,15 +3634,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>75080</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="96" name="Elipse 95"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4671733" y="811867"/>
-          <a:ext cx="238125" cy="238125"/>
+          <a:off x="7912100" y="1189355"/>
+          <a:ext cx="209550" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2965,6 +3681,11 @@
             </a:rPr>
             <a:t>N</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0033CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2983,15 +3704,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>132785</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="97" name="Elipse 96"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2288241" y="1852327"/>
-          <a:ext cx="238125" cy="241487"/>
+          <a:off x="3790950" y="1845310"/>
+          <a:ext cx="238125" cy="240030"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3030,6 +3751,11 @@
             </a:rPr>
             <a:t>N</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0033CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3048,15 +3774,15 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="98" name="Elipse 97"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="485775" y="1171575"/>
-          <a:ext cx="238125" cy="238125"/>
+          <a:off x="3781425" y="1562100"/>
+          <a:ext cx="238125" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3095,6 +3821,11 @@
             </a:rPr>
             <a:t>N</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0033CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3113,14 +3844,14 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="101" name="Elipse 100"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6334125" y="3514725"/>
+          <a:off x="9601200" y="4162425"/>
           <a:ext cx="238125" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3160,6 +3891,11 @@
             </a:rPr>
             <a:t>N</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0033CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3178,14 +3914,14 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="102" name="Elipse 101"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6315075" y="1028700"/>
+          <a:off x="9582150" y="1419225"/>
           <a:ext cx="238125" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3225,6 +3961,11 @@
             </a:rPr>
             <a:t>N</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0033CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3243,15 +3984,15 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>62682</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="68" name="Conector recto 67"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4439281" y="1476025"/>
-          <a:ext cx="448235" cy="336876"/>
+          <a:off x="7678420" y="1870710"/>
+          <a:ext cx="419735" cy="344170"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3287,15 +4028,15 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="81" name="Conector recto 80"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4864403" y="1817454"/>
-          <a:ext cx="1570925" cy="4202"/>
+          <a:off x="8086725" y="2219325"/>
+          <a:ext cx="1560830" cy="4445"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3331,15 +4072,15 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="82" name="Conector recto 81"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6417469" y="1815703"/>
-          <a:ext cx="714375" cy="1654619"/>
+          <a:off x="9629775" y="2218055"/>
+          <a:ext cx="685800" cy="1873250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3375,15 +4116,15 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>168646</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="83" name="Elipse 82"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4059330" y="1295959"/>
-          <a:ext cx="238125" cy="228599"/>
+          <a:off x="7294880" y="1682750"/>
+          <a:ext cx="243205" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3422,6 +4163,11 @@
             </a:rPr>
             <a:t>N</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0033CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3440,15 +4186,15 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>21850</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="89" name="Elipse 88"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6916831" y="3364565"/>
-          <a:ext cx="209550" cy="220756"/>
+          <a:off x="10133965" y="3983990"/>
+          <a:ext cx="181610" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3487,6 +4233,11 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3505,15 +4256,15 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>61637</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="63" name="Elipse 62"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4665013" y="5381629"/>
-          <a:ext cx="238125" cy="260537"/>
+          <a:off x="7905750" y="5574665"/>
+          <a:ext cx="209550" cy="259080"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3552,6 +4303,11 @@
             </a:rPr>
             <a:t>N</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0033CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3570,7 +4326,7 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>40960</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="64" name="Conector recto 63"/>
         <xdr:cNvCxnSpPr>
@@ -3579,8 +4335,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4134971" y="2846294"/>
-          <a:ext cx="733294" cy="2573490"/>
+          <a:off x="7375525" y="2830830"/>
+          <a:ext cx="711200" cy="2781935"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3616,15 +4372,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>126624</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="67" name="Elipse 66"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4074464" y="2673721"/>
-          <a:ext cx="209550" cy="220756"/>
+          <a:off x="7310120" y="2660015"/>
+          <a:ext cx="214630" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3663,6 +4419,11 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3681,15 +4442,15 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="69" name="Conector recto 68"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6364941" y="5244353"/>
-          <a:ext cx="784412" cy="224118"/>
+          <a:off x="9582150" y="5438775"/>
+          <a:ext cx="755650" cy="222885"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3725,7 +4486,7 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="84" name="Conector recto 83"/>
         <xdr:cNvCxnSpPr>
@@ -3734,8 +4495,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8505265" y="1133082"/>
-          <a:ext cx="729631" cy="4537094"/>
+          <a:off x="11688445" y="1129665"/>
+          <a:ext cx="722630" cy="4732020"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3771,15 +4532,15 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>39225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="91" name="Elipse 90"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6917394" y="5359217"/>
-          <a:ext cx="238125" cy="260537"/>
+          <a:off x="10134600" y="5553710"/>
+          <a:ext cx="209550" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3818,6 +4579,11 @@
             </a:rPr>
             <a:t>N</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0033CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3836,15 +4602,15 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>48182</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="99" name="Elipse 98"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6315640" y="5206250"/>
-          <a:ext cx="209550" cy="220756"/>
+          <a:off x="9527540" y="5400675"/>
+          <a:ext cx="214630" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3883,6 +4649,11 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3901,15 +4672,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>189377</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="100" name="Elipse 99"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10927981" y="1929650"/>
-          <a:ext cx="209550" cy="220756"/>
+          <a:off x="14084300" y="1922780"/>
+          <a:ext cx="193675" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3948,6 +4719,11 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3966,15 +4742,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>128865</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="103" name="Elipse 102"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10923499" y="2675962"/>
-          <a:ext cx="209550" cy="220756"/>
+          <a:off x="14079855" y="2661920"/>
+          <a:ext cx="198120" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4013,6 +4789,11 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4031,15 +4812,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>158000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="104" name="Elipse 103"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10919017" y="912156"/>
-          <a:ext cx="209550" cy="220756"/>
+          <a:off x="14075410" y="909955"/>
+          <a:ext cx="202565" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4078,6 +4859,11 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4096,15 +4882,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>12330</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="105" name="Elipse 104"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10353117" y="1309411"/>
-          <a:ext cx="238125" cy="260537"/>
+          <a:off x="13507720" y="1305560"/>
+          <a:ext cx="240030" cy="259080"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4143,6 +4929,11 @@
             </a:rPr>
             <a:t>N</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0033CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4161,15 +4952,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>19054</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="106" name="Elipse 105"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10359841" y="1719546"/>
-          <a:ext cx="238125" cy="260537"/>
+          <a:off x="13514705" y="1714500"/>
+          <a:ext cx="239395" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4208,6 +4999,11 @@
             </a:rPr>
             <a:t>N</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0033CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4226,15 +5022,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>182659</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="107" name="Elipse 106"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10355359" y="2286563"/>
-          <a:ext cx="238125" cy="260537"/>
+          <a:off x="13510260" y="2276475"/>
+          <a:ext cx="239395" cy="258445"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4273,6 +5069,11 @@
             </a:rPr>
             <a:t>N</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0033CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4291,7 +5092,7 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>72562</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="108" name="Conector recto 107"/>
         <xdr:cNvCxnSpPr>
@@ -4301,8 +5102,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10353117" y="1100583"/>
-          <a:ext cx="744762" cy="339097"/>
+          <a:off x="13507720" y="1096645"/>
+          <a:ext cx="746760" cy="337820"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4338,15 +5139,15 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>178177</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="109" name="Elipse 108"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8501906" y="5498169"/>
-          <a:ext cx="238125" cy="260537"/>
+          <a:off x="11685270" y="5690870"/>
+          <a:ext cx="238125" cy="259080"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4385,6 +5186,11 @@
             </a:rPr>
             <a:t>N</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0033CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4403,7 +5209,7 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>78999</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="110" name="Conector recto 109"/>
         <xdr:cNvCxnSpPr>
@@ -4412,8 +5218,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10371046" y="1905846"/>
-          <a:ext cx="766485" cy="134182"/>
+          <a:off x="13525500" y="1898650"/>
+          <a:ext cx="752475" cy="132715"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4449,7 +5255,7 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>96536</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="111" name="Conector recto 110"/>
         <xdr:cNvCxnSpPr>
@@ -4458,8 +5264,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10388975" y="2484069"/>
-          <a:ext cx="713386" cy="380320"/>
+          <a:off x="13545185" y="2472055"/>
+          <a:ext cx="713740" cy="377190"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4495,15 +5301,15 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="113" name="Conector recto 112"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1512794" y="3272118"/>
-          <a:ext cx="739588" cy="593911"/>
+          <a:off x="1515745" y="3253105"/>
+          <a:ext cx="739775" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4529,25 +5335,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1104899</xdr:colOff>
+      <xdr:colOff>1095375</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:rowOff>120015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>750794</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
+      <xdr:colOff>728345</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>145415</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="115" name="Conector recto 114"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="130" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1497105" y="2521324"/>
-          <a:ext cx="755277" cy="197223"/>
+        <a:xfrm>
+          <a:off x="1485900" y="2472690"/>
+          <a:ext cx="747395" cy="25400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4583,15 +5391,15 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>67237</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="116" name="Conector recto 115"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1501588" y="2823882"/>
-          <a:ext cx="694765" cy="605120"/>
+          <a:off x="1504950" y="2808605"/>
+          <a:ext cx="694690" cy="601345"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4627,15 +5435,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="117" name="Conector recto 116"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2173941" y="2835088"/>
-          <a:ext cx="1893794" cy="0"/>
+          <a:off x="2176780" y="2819400"/>
+          <a:ext cx="1863090" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4671,7 +5479,7 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="118" name="Conector recto 117"/>
         <xdr:cNvCxnSpPr>
@@ -4680,8 +5488,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5375894" y="3929549"/>
-          <a:ext cx="697694" cy="2592275"/>
+          <a:off x="5345430" y="3954780"/>
+          <a:ext cx="697865" cy="2574290"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4717,15 +5525,15 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>2241</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="119" name="Elipse 118"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5862919" y="6327401"/>
-          <a:ext cx="238125" cy="241487"/>
+          <a:off x="5832475" y="6336030"/>
+          <a:ext cx="215900" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4764,6 +5572,11 @@
             </a:rPr>
             <a:t>N</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0033CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4782,15 +5595,15 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>21294</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="120" name="Elipse 119"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11785229" y="7134228"/>
-          <a:ext cx="238125" cy="260537"/>
+          <a:off x="11677650" y="7115175"/>
+          <a:ext cx="234315" cy="259080"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4829,6 +5642,11 @@
             </a:rPr>
             <a:t>N</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0033CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4847,15 +5665,15 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>28018</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="121" name="Elipse 120"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11791952" y="7331452"/>
-          <a:ext cx="238125" cy="260537"/>
+          <a:off x="11680825" y="7310755"/>
+          <a:ext cx="238125" cy="270510"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4894,6 +5712,11 @@
             </a:rPr>
             <a:t>N</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0033CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4912,15 +5735,15 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>63874</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="122" name="Elipse 121"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10186148" y="7216589"/>
-          <a:ext cx="209551" cy="220756"/>
+          <a:off x="10108565" y="7195820"/>
+          <a:ext cx="207010" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4959,6 +5782,11 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4977,7 +5805,7 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>100854</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="123" name="Conector recto 122"/>
         <xdr:cNvCxnSpPr>
@@ -4986,8 +5814,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11766177" y="1133082"/>
-          <a:ext cx="763248" cy="6150743"/>
+          <a:off x="11659870" y="1129665"/>
+          <a:ext cx="751205" cy="6133465"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5023,15 +5851,15 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="124" name="Conector recto 123"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7720853" y="7530353"/>
-          <a:ext cx="2711823" cy="11206"/>
+          <a:off x="7666990" y="7510145"/>
+          <a:ext cx="2659380" cy="10795"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5067,15 +5895,15 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="125" name="Conector recto 124"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7429500" y="6107206"/>
-          <a:ext cx="268941" cy="1423147"/>
+          <a:off x="7375525" y="6106160"/>
+          <a:ext cx="268605" cy="1403985"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5111,15 +5939,15 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>193863</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="126" name="Elipse 125"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7391401" y="5945842"/>
-          <a:ext cx="209551" cy="220756"/>
+          <a:off x="7332345" y="5946775"/>
+          <a:ext cx="214630" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5158,6 +5986,11 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5176,15 +6009,15 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>6722</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="127" name="Elipse 126"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1461808" y="3339912"/>
-          <a:ext cx="209550" cy="230281"/>
+          <a:off x="1459865" y="3321050"/>
+          <a:ext cx="214630" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5223,6 +6056,11 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5241,15 +6079,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>181534</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="128" name="Elipse 127"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2084855" y="3122518"/>
-          <a:ext cx="209550" cy="230281"/>
+          <a:off x="2087880" y="3105150"/>
+          <a:ext cx="209550" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5288,6 +6126,11 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5306,15 +6149,15 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>24653</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="129" name="Elipse 128"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1468531" y="3740523"/>
-          <a:ext cx="238125" cy="251012"/>
+          <a:off x="1466850" y="3719830"/>
+          <a:ext cx="242570" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5353,6 +6196,11 @@
             </a:rPr>
             <a:t>N</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0033CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5361,25 +6209,95 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1083048</xdr:colOff>
+      <xdr:colOff>1060450</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>94129</xdr:rowOff>
+      <xdr:rowOff>83185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>211791</xdr:colOff>
+      <xdr:colOff>189193</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>143435</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>132491</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="130" name="Elipse 129"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1475254" y="2458570"/>
-          <a:ext cx="238125" cy="251012"/>
+          <a:off x="1450975" y="2435860"/>
+          <a:ext cx="242570" cy="248920"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>563096</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>39221</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>82923</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="Elipse 130"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3858260" y="2585720"/>
+          <a:ext cx="209550" cy="249555"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5418,6 +6336,11 @@
             </a:rPr>
             <a:t>N</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0033CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5426,25 +6349,289 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>563096</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>39221</xdr:colOff>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25774</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>82923</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
+      <xdr:rowOff>142035</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="Conector recto 113"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3317875" y="2052955"/>
+          <a:ext cx="2755900" cy="841375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>750795</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="Conector recto 131"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3295650" y="1038225"/>
+          <a:ext cx="733425" cy="826135"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="Conector recto 132"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3474720" y="2286635"/>
+          <a:ext cx="11430" cy="4821555"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>997324</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="Conector recto 133"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3263900" y="2320290"/>
+          <a:ext cx="210820" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>201707</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="135" name="Conector recto 134"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3496945" y="7096760"/>
+          <a:ext cx="2165350" cy="11430"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="Conector recto 135"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5628640" y="6095365"/>
+          <a:ext cx="430530" cy="1012825"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>488315</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>730885</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="Elipse 130"/>
+        <xdr:cNvPr id="3" name="Elipse 129"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3857625" y="2599764"/>
-          <a:ext cx="238125" cy="251012"/>
+          <a:off x="1993265" y="2206625"/>
+          <a:ext cx="242570" cy="248920"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5472,7 +6659,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="es-MX">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -5483,273 +6768,14 @@
             </a:rPr>
             <a:t>N</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0033CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>25774</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142035</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="114" name="Conector recto 113"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3316941" y="2061882"/>
-          <a:ext cx="2816039" cy="848006"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>750795</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="132" name="Conector recto 131"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3294529" y="1042148"/>
-          <a:ext cx="750795" cy="829234"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>179295</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="133" name="Conector recto 132"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3473824" y="2297206"/>
-          <a:ext cx="11205" cy="4863353"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>997324</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>168089</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>179295</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>168089</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="134" name="Conector recto 133"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3260912" y="2330824"/>
-          <a:ext cx="212912" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>201707</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="135" name="Conector recto 134"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3496236" y="7149353"/>
-          <a:ext cx="2196352" cy="11206"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>313765</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123266</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="136" name="Conector recto 135"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5658971" y="6140825"/>
-          <a:ext cx="459441" cy="1019734"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5798,7 +6824,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5833,7 +6859,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -6007,552 +7033,547 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.85714285714286" customWidth="1"/>
+    <col min="2" max="2" width="16.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="11.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="15.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="19.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="19.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="22.4285714285714" customWidth="1"/>
+    <col min="12" max="12" width="20.4285714285714" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="19.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="H2" s="22" t="s">
+    <row r="2" spans="8:10">
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="4" ht="15.75" spans="6:6">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" ht="15.75" spans="6:16">
+      <c r="F5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="6:16">
+      <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="16"/>
+      <c r="P6" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="4:16">
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="16"/>
+      <c r="P7" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="4:17">
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" ht="15.75" spans="4:17">
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+    </row>
+    <row r="10" ht="15.75" spans="4:17">
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="16"/>
+      <c r="P10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="16"/>
+    </row>
+    <row r="11" ht="15.75" spans="4:18">
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="16"/>
+      <c r="R11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="2:17">
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" ht="15.75" spans="2:17">
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" ht="15.75" spans="2:17">
+      <c r="B14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="16"/>
+      <c r="P14" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" ht="15.75" spans="6:17">
+      <c r="F15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="16"/>
     </row>
-    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="7"/>
+    <row r="16" ht="15.75" spans="4:17">
+      <c r="D16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" s="16"/>
+      <c r="P16" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="16"/>
     </row>
-    <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="1" t="s">
+    <row r="17" spans="2:17">
+      <c r="B17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" ht="15.75" spans="2:17">
+      <c r="B18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="16"/>
+      <c r="P18" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="22"/>
+    </row>
+    <row r="19" ht="19.5" customHeight="1" spans="2:17">
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="18" t="s">
+      <c r="J19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" s="16"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+    </row>
+    <row r="20" ht="15.75" spans="2:17">
+      <c r="B20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="J20" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="L20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
     </row>
-    <row r="6" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-    </row>
-    <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-    </row>
-    <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="12"/>
-    </row>
-    <row r="11" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q12" s="12"/>
-    </row>
-    <row r="13" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-    </row>
-    <row r="14" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="19" t="s">
+    <row r="21" ht="15.75" spans="6:17">
+      <c r="F21" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="Q14" s="12"/>
-    </row>
-    <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F15" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q15" s="12"/>
-    </row>
-    <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="O16" s="12"/>
-      <c r="P16" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q16" s="12"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-    </row>
-    <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18" s="12"/>
-      <c r="P18" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q18" s="24"/>
-    </row>
-    <row r="19" spans="2:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-    </row>
-    <row r="20" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="J20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N20" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-    </row>
-    <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="H21" s="5"/>
       <c r="J21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q21" s="24"/>
+    </row>
+    <row r="22" spans="6:17">
+      <c r="F22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N21" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="P21" s="25" t="s">
+      <c r="J22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+    </row>
+    <row r="23" ht="15.75" spans="8:12">
+      <c r="H23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" spans="6:8">
+      <c r="F24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8">
+      <c r="F25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" spans="6:8">
+      <c r="F26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" spans="6:12">
+      <c r="F27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" spans="6:12">
+      <c r="F28" s="2"/>
+      <c r="J28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" spans="6:12">
+      <c r="F29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" spans="6:12">
+      <c r="F30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" spans="6:12">
+      <c r="F31" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" spans="6:10">
+      <c r="F32" s="2"/>
+      <c r="H32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" spans="6:8">
+      <c r="F33" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="Q21" s="25"/>
+      <c r="H33" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
+    <row r="34" spans="6:10">
+      <c r="F34" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="25"/>
     </row>
-    <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H23" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>48</v>
-      </c>
+    <row r="35" ht="15.75" spans="6:10">
+      <c r="F35" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="26"/>
     </row>
-    <row r="24" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>7</v>
+    <row r="36" ht="15.75" spans="10:12">
+      <c r="J36" s="2"/>
+      <c r="L36" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>34</v>
+    <row r="37" spans="12:12">
+      <c r="L37" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>33</v>
+    <row r="38" ht="15.75" spans="12:12">
+      <c r="L38" s="27" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="7"/>
-      <c r="J28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="7"/>
-      <c r="H32" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J34" s="26"/>
-    </row>
-    <row r="35" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F35" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" s="27"/>
-    </row>
-    <row r="36" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J36" s="7"/>
-      <c r="L36" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="L37" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L38" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="10:10">
       <c r="J40" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -6561,8 +7582,9 @@
     <mergeCell ref="P18:Q19"/>
     <mergeCell ref="P21:Q22"/>
   </mergeCells>
-  <pageMargins left="0.23622047244094491" right="1.6141732283464567" top="0.94488188976377963" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="3" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.236220472440945" right="1.61417322834646" top="0.94488188976378" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="3" orientation="landscape"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>